--- a/classfiers/chatty/svm/nearmiss/chatty-svm-default-nearmiss-results.xlsx
+++ b/classfiers/chatty/svm/nearmiss/chatty-svm-default-nearmiss-results.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E3" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7777777777777779</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6</v>
+        <v>0.8833333333333332</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.9314285714285713</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8055555555555556</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/chatty/svm/nearmiss/chatty-svm-default-nearmiss-results.xlsx
+++ b/classfiers/chatty/svm/nearmiss/chatty-svm-default-nearmiss-results.xlsx
@@ -470,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8000000000000002</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9600000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -546,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8833333333333332</v>
+        <v>0.8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9314285714285713</v>
+        <v>0.8520634920634922</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.9720000000000001</v>
       </c>
     </row>
   </sheetData>
